--- a/03-07-24-modified_fertilizer_datav4.xlsx
+++ b/03-07-24-modified_fertilizer_datav4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itsacid-my.sharepoint.com/personal/5025201268_student_its_ac_id/Documents/Dokumen/MyITSAcademiaFinalSeason/TugasAKhir/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{6DE07F2C-EEFC-45C4-9285-5C0BC01DACC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CDC0F8D-3AA8-476F-B191-B433FD227A86}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{6DE07F2C-EEFC-45C4-9285-5C0BC01DACC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF22411E-BB15-439A-898D-948A00150518}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1331"/>
+  <dimension ref="A1:F1329"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="G361" sqref="G361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8328,184 +8328,158 @@
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A366" s="17">
-        <v>45292</v>
+      <c r="A366" s="16">
+        <v>45352</v>
       </c>
       <c r="B366" s="12">
-        <v>596.25</v>
+        <v>617.5</v>
       </c>
       <c r="C366" s="14">
-        <v>296.25</v>
+        <v>300.5</v>
       </c>
       <c r="D366" s="10">
         <v>152.5</v>
       </c>
       <c r="E366" s="9">
-        <v>450.63</v>
+        <v>449</v>
       </c>
       <c r="F366" s="13">
-        <v>335.38</v>
+        <v>330</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A367" s="15">
-        <v>45323</v>
+      <c r="A367" s="19">
+        <v>45383</v>
       </c>
       <c r="B367" s="12">
-        <v>583.80999999999995</v>
+        <v>545</v>
       </c>
       <c r="C367" s="14">
-        <v>289.38</v>
+        <v>305</v>
       </c>
       <c r="D367" s="10">
         <v>152.5</v>
       </c>
       <c r="E367" s="9">
-        <v>454.38</v>
+        <v>442.5</v>
       </c>
       <c r="F367" s="13">
-        <v>351.25</v>
+        <v>320</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A368" s="16">
-        <v>45352</v>
-      </c>
-      <c r="B368" s="12">
-        <v>617.5</v>
-      </c>
-      <c r="C368" s="14">
-        <v>300.5</v>
-      </c>
-      <c r="D368" s="10">
-        <v>152.5</v>
-      </c>
-      <c r="E368" s="9">
-        <v>449</v>
-      </c>
-      <c r="F368" s="13">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A369" s="19">
-        <v>45383</v>
-      </c>
-      <c r="B369" s="12">
-        <v>545</v>
-      </c>
-      <c r="C369" s="14">
-        <v>305</v>
-      </c>
-      <c r="D369" s="10">
-        <v>152.5</v>
-      </c>
-      <c r="E369" s="9">
-        <v>442.5</v>
-      </c>
-      <c r="F369" s="13">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B368"/>
+      <c r="C368"/>
+      <c r="D368"/>
+      <c r="E368"/>
+      <c r="F368"/>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B369"/>
+      <c r="C369"/>
+      <c r="D369"/>
+      <c r="E369"/>
+      <c r="F369"/>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B370"/>
       <c r="C370"/>
       <c r="D370"/>
       <c r="E370"/>
       <c r="F370"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B371"/>
       <c r="C371"/>
       <c r="D371"/>
       <c r="E371"/>
       <c r="F371"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B372"/>
       <c r="C372"/>
       <c r="D372"/>
       <c r="E372"/>
       <c r="F372"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B373"/>
       <c r="C373"/>
       <c r="D373"/>
       <c r="E373"/>
       <c r="F373"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B374"/>
       <c r="C374"/>
       <c r="D374"/>
       <c r="E374"/>
       <c r="F374"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B375"/>
       <c r="C375"/>
       <c r="D375"/>
       <c r="E375"/>
       <c r="F375"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B376"/>
       <c r="C376"/>
       <c r="D376"/>
       <c r="E376"/>
       <c r="F376"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B377"/>
       <c r="C377"/>
       <c r="D377"/>
       <c r="E377"/>
       <c r="F377"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B378"/>
       <c r="C378"/>
       <c r="D378"/>
       <c r="E378"/>
       <c r="F378"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B379"/>
       <c r="C379"/>
       <c r="D379"/>
       <c r="E379"/>
       <c r="F379"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B380"/>
       <c r="C380"/>
       <c r="D380"/>
       <c r="E380"/>
       <c r="F380"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B381"/>
       <c r="C381"/>
       <c r="D381"/>
       <c r="E381"/>
       <c r="F381"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B382"/>
       <c r="C382"/>
       <c r="D382"/>
       <c r="E382"/>
       <c r="F382"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B383"/>
       <c r="C383"/>
       <c r="D383"/>
       <c r="E383"/>
       <c r="F383"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384"/>
@@ -15127,20 +15101,6 @@
       <c r="E1329"/>
       <c r="F1329"/>
     </row>
-    <row r="1330" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1330"/>
-      <c r="C1330"/>
-      <c r="D1330"/>
-      <c r="E1330"/>
-      <c r="F1330"/>
-    </row>
-    <row r="1331" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1331"/>
-      <c r="C1331"/>
-      <c r="D1331"/>
-      <c r="E1331"/>
-      <c r="F1331"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
